--- a/GC Breakdown/Historical_MERALCO_GC_Breakdown.xlsx
+++ b/GC Breakdown/Historical_MERALCO_GC_Breakdown.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>Generation Charge</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
